--- a/data/fact_data/parbhani/Parbhani_Sec_Oct_19.xlsx
+++ b/data/fact_data/parbhani/Parbhani_Sec_Oct_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/parbhani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5025908-139F-D649-B738-1E5731C10D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84475C98-894F-A64D-92B8-17D09324746E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Gonablok 200mg 3*10's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          PRODUCT</t>
   </si>
   <si>
     <t>Myospaz D          5*10's</t>
@@ -290,10 +287,13 @@
     <t>Total_Price</t>
   </si>
   <si>
-    <t>shrei Laxmi venketesh</t>
+    <t>Oct</t>
   </si>
   <si>
-    <t>Oct</t>
+    <t>Shri Laxmi Venkatesh</t>
+  </si>
+  <si>
+    <t>product_name</t>
   </si>
 </sst>
 </file>
@@ -1874,9 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A366A464-7A6E-AD4A-8397-F3201310EB20}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -1885,31 +1883,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1928,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -1956,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -1986,13 +1984,13 @@
         <v>2457</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -2016,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -2046,13 +2044,13 @@
         <v>130</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -2076,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -2106,13 +2104,13 @@
         <v>1056</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -2136,13 +2134,13 @@
         <v>4218</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -2150,7 +2148,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2162,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -2176,7 +2174,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2188,13 +2186,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -2218,13 +2216,13 @@
         <v>892</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -2248,13 +2246,13 @@
         <v>19703</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -2278,13 +2276,13 @@
         <v>7176</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -2292,7 +2290,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
@@ -2308,13 +2306,13 @@
         <v>98</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -2322,7 +2320,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>13</v>
@@ -2335,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -2349,7 +2347,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>372</v>
@@ -2365,13 +2363,13 @@
         <v>26040</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -2379,7 +2377,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>238</v>
@@ -2395,13 +2393,13 @@
         <v>11662</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -2409,7 +2407,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2421,13 +2419,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -2435,7 +2433,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>10</v>
@@ -2451,13 +2449,13 @@
         <v>3990</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -2465,7 +2463,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -2481,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -2495,7 +2493,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2504,13 +2502,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -2534,13 +2532,13 @@
         <v>10208</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -2548,7 +2546,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -2564,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -2594,13 +2592,13 @@
         <v>2400</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -2624,13 +2622,13 @@
         <v>6240</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -2638,7 +2636,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>3</v>
@@ -2654,13 +2652,13 @@
         <v>2490</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -2668,7 +2666,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -2684,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -2698,7 +2696,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>10</v>
@@ -2714,13 +2712,13 @@
         <v>3600</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -2728,7 +2726,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -2744,13 +2742,13 @@
         <v>538</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -2758,7 +2756,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -2774,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -2788,7 +2786,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -2804,13 +2802,13 @@
         <v>789</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -2818,7 +2816,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -2834,13 +2832,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -2864,13 +2862,13 @@
         <v>863</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -2878,7 +2876,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2887,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -2917,13 +2915,13 @@
         <v>2272</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -2947,13 +2945,13 @@
         <v>6835</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -2977,13 +2975,13 @@
         <v>1910</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -2991,7 +2989,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -3007,13 +3005,13 @@
         <v>168</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -3037,13 +3035,13 @@
         <v>1287</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -3067,13 +3065,13 @@
         <v>2716</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -3081,7 +3079,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -3097,13 +3095,13 @@
         <v>1270</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -3111,7 +3109,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -3127,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -3141,7 +3139,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>3</v>
@@ -3157,13 +3155,13 @@
         <v>2265</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -3171,7 +3169,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3180,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -3194,7 +3192,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3">
         <v>2</v>
@@ -3207,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -3237,13 +3235,13 @@
         <v>8856</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -3267,13 +3265,13 @@
         <v>157</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -3297,13 +3295,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -3311,7 +3309,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3320,13 +3318,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -3334,7 +3332,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -3350,13 +3348,13 @@
         <v>484</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -3364,7 +3362,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
@@ -3376,13 +3374,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -3390,7 +3388,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>50</v>
@@ -3406,13 +3404,13 @@
         <v>38450</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -3420,7 +3418,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3430,13 +3428,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -3444,7 +3442,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -3460,13 +3458,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -3474,7 +3472,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3484,13 +3482,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -3498,7 +3496,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
@@ -3514,13 +3512,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -3528,7 +3526,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -3544,13 +3542,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -3558,7 +3556,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
@@ -3574,13 +3572,13 @@
         <v>112</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -3588,7 +3586,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -3604,13 +3602,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -3618,7 +3616,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -3634,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -3648,7 +3646,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3656,13 +3654,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -3670,7 +3668,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
@@ -3682,13 +3680,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -3696,7 +3694,7 @@
     </row>
     <row r="64" spans="1:9" ht="14">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -3708,13 +3706,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -3722,7 +3720,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -3734,13 +3732,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -3748,18 +3746,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -3767,7 +3765,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>10</v>
@@ -3779,13 +3777,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -3793,7 +3791,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3801,13 +3799,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -3815,7 +3813,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -3827,13 +3825,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -3841,7 +3839,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>6</v>
@@ -3853,13 +3851,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -3867,7 +3865,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>191636</v>
@@ -3876,13 +3874,13 @@
         <v>40268</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -3902,9 +3900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DC2B61-4217-A44E-B170-F7E9B5E915E9}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -3914,31 +3910,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3959,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -3989,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -4019,13 +4015,13 @@
         <v>6370</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -4045,13 +4041,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -4071,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -4097,13 +4093,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -4127,13 +4123,13 @@
         <v>792</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -4157,13 +4153,13 @@
         <v>1140</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -4171,7 +4167,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4183,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -4197,7 +4193,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4209,13 +4205,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -4235,13 +4231,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -4265,13 +4261,13 @@
         <v>3721</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -4291,13 +4287,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -4305,7 +4301,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4317,13 +4313,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -4331,7 +4327,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4340,13 +4336,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -4354,7 +4350,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>102</v>
@@ -4370,13 +4366,13 @@
         <v>9590</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -4384,7 +4380,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>83</v>
@@ -4400,13 +4396,13 @@
         <v>1813</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -4414,7 +4410,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4426,13 +4422,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -4440,7 +4436,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4452,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -4466,7 +4462,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4478,13 +4474,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -4492,7 +4488,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4501,13 +4497,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -4531,13 +4527,13 @@
         <v>3828</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -4545,7 +4541,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -4561,13 +4557,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -4591,13 +4587,13 @@
         <v>960</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -4621,13 +4617,13 @@
         <v>2400</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -4635,7 +4631,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -4651,13 +4647,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -4665,7 +4661,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -4679,13 +4675,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -4693,7 +4689,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -4709,13 +4705,13 @@
         <v>1440</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -4723,7 +4719,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -4739,13 +4735,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -4753,7 +4749,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -4769,13 +4765,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -4783,7 +4779,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -4799,13 +4795,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -4813,7 +4809,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -4829,13 +4825,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -4859,13 +4855,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -4873,7 +4869,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4882,13 +4878,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -4912,13 +4908,13 @@
         <v>1136</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -4938,13 +4934,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -4964,13 +4960,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -4978,7 +4974,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4990,13 +4986,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -5016,13 +5012,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -5042,13 +5038,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -5056,7 +5052,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -5072,13 +5068,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -5086,7 +5082,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -5102,13 +5098,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -5116,7 +5112,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -5132,13 +5128,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -5146,7 +5142,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -5155,13 +5151,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -5169,7 +5165,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5178,13 +5174,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -5204,13 +5200,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -5230,13 +5226,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -5260,13 +5256,13 @@
         <v>1338</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -5274,7 +5270,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -5283,13 +5279,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -5297,7 +5293,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>3</v>
@@ -5313,13 +5309,13 @@
         <v>484</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -5327,7 +5323,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -5337,13 +5333,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -5351,7 +5347,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5363,13 +5359,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -5377,7 +5373,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5387,13 +5383,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -5401,7 +5397,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5413,13 +5409,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -5427,7 +5423,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5437,13 +5433,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -5451,7 +5447,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5463,13 +5459,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -5477,7 +5473,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5489,13 +5485,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -5503,7 +5499,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5515,13 +5511,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -5529,7 +5525,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5541,13 +5537,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -5555,7 +5551,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5567,13 +5563,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -5581,7 +5577,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5589,13 +5585,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -5603,7 +5599,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5611,13 +5607,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -5625,7 +5621,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5633,13 +5629,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -5647,7 +5643,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5655,13 +5651,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -5669,18 +5665,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -5688,7 +5684,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>8</v>
@@ -5700,13 +5696,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -5714,7 +5710,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -5722,13 +5718,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -5736,7 +5732,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>3</v>
@@ -5748,13 +5744,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -5762,7 +5758,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -5774,13 +5770,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -5788,7 +5784,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>30117</v>
@@ -5797,13 +5793,13 @@
         <v>33990</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -5823,9 +5819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8803B3AD-3034-1048-B0AB-2AA2336E3FB4}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -5835,31 +5829,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5876,13 +5870,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -5902,13 +5896,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -5932,13 +5926,13 @@
         <v>1456</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -5958,13 +5952,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -5984,13 +5978,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -6010,13 +6004,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -6040,13 +6034,13 @@
         <v>352</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -6070,13 +6064,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -6084,7 +6078,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -6100,13 +6094,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -6114,7 +6108,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -6130,13 +6124,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -6156,13 +6150,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -6186,13 +6180,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -6216,13 +6210,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -6230,7 +6224,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -6246,13 +6240,13 @@
         <v>245</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -6260,7 +6254,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -6273,13 +6267,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -6287,7 +6281,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>304</v>
@@ -6303,13 +6297,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -6317,7 +6311,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>180</v>
@@ -6333,13 +6327,13 @@
         <v>588</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -6347,7 +6341,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -6363,13 +6357,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -6377,7 +6371,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -6393,13 +6387,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -6407,7 +6401,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>5</v>
@@ -6423,13 +6417,13 @@
         <v>2476</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -6437,7 +6431,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6446,13 +6440,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -6476,13 +6470,13 @@
         <v>1914</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -6490,7 +6484,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>6</v>
@@ -6506,13 +6500,13 @@
         <v>204</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -6536,13 +6530,13 @@
         <v>1440</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -6566,13 +6560,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -6580,7 +6574,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -6596,13 +6590,13 @@
         <v>4150</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -6610,7 +6604,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -6626,13 +6620,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -6640,7 +6634,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
@@ -6656,13 +6650,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -6670,7 +6664,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>4</v>
@@ -6686,13 +6680,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -6700,7 +6694,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -6716,13 +6710,13 @@
         <v>633</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -6730,7 +6724,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -6746,13 +6740,13 @@
         <v>1578</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -6760,7 +6754,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -6776,13 +6770,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -6806,13 +6800,13 @@
         <v>863</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -6820,7 +6814,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6829,13 +6823,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -6859,13 +6853,13 @@
         <v>2272</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -6889,13 +6883,13 @@
         <v>1367</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -6919,13 +6913,13 @@
         <v>2865</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -6933,7 +6927,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>4</v>
@@ -6949,13 +6943,13 @@
         <v>672</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -6979,13 +6973,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -7009,13 +7003,13 @@
         <v>1358</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -7023,7 +7017,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -7039,13 +7033,13 @@
         <v>5080</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -7053,7 +7047,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -7069,13 +7063,13 @@
         <v>1184</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -7083,7 +7077,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -7099,13 +7093,13 @@
         <v>755</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -7113,7 +7107,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -7122,13 +7116,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -7136,7 +7130,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3">
@@ -7147,13 +7141,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -7177,13 +7171,13 @@
         <v>2952</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -7207,13 +7201,13 @@
         <v>785</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -7237,13 +7231,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -7251,7 +7245,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -7260,13 +7254,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -7274,7 +7268,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>2</v>
@@ -7290,13 +7284,13 @@
         <v>968</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -7304,7 +7298,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -7314,13 +7308,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -7328,7 +7322,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>20</v>
@@ -7344,13 +7338,13 @@
         <v>24608</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -7358,7 +7352,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -7368,13 +7362,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -7382,7 +7376,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -7398,13 +7392,13 @@
         <v>775</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -7412,7 +7406,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -7422,13 +7416,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -7436,7 +7430,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
@@ -7452,13 +7446,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -7466,7 +7460,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -7482,13 +7476,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -7496,7 +7490,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -7512,13 +7506,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -7526,7 +7520,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -7542,13 +7536,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -7556,7 +7550,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -7572,13 +7566,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -7586,7 +7580,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -7594,13 +7588,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -7608,7 +7602,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
@@ -7620,13 +7614,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -7634,7 +7628,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -7646,13 +7640,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -7660,7 +7654,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -7672,13 +7666,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -7686,18 +7680,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -7705,7 +7699,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>10</v>
@@ -7717,13 +7711,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -7731,7 +7725,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>0</v>
@@ -7743,13 +7737,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -7757,7 +7751,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -7769,13 +7763,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -7783,7 +7777,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>4</v>
@@ -7795,13 +7789,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -7809,7 +7803,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>155646</v>
@@ -7818,13 +7812,13 @@
         <v>69986</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -7844,9 +7838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81450CD-4BCC-3B48-951B-DD26CC02B66F}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -7855,31 +7847,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7896,13 +7888,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -7922,13 +7914,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -7952,13 +7944,13 @@
         <v>5460</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -7980,13 +7972,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -8010,13 +8002,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -8036,13 +8028,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -8066,13 +8058,13 @@
         <v>1584</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -8096,13 +8088,13 @@
         <v>1026</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -8110,7 +8102,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8122,13 +8114,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -8136,7 +8128,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8148,13 +8140,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -8178,13 +8170,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -8208,13 +8200,13 @@
         <v>244</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -8238,13 +8230,13 @@
         <v>832</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -8252,7 +8244,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>5</v>
@@ -8268,13 +8260,13 @@
         <v>147</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -8282,7 +8274,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
@@ -8295,13 +8287,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -8309,7 +8301,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>191</v>
@@ -8325,13 +8317,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -8339,7 +8331,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>269</v>
@@ -8355,13 +8347,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -8369,7 +8361,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8381,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -8395,7 +8387,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -8411,13 +8403,13 @@
         <v>3591</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -8425,7 +8417,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -8441,13 +8433,13 @@
         <v>2476</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -8455,7 +8447,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8464,13 +8456,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -8494,13 +8486,13 @@
         <v>638</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -8508,7 +8500,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
@@ -8524,13 +8516,13 @@
         <v>136</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -8554,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -8584,13 +8576,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -8598,7 +8590,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -8614,13 +8606,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -8628,7 +8620,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -8644,13 +8636,13 @@
         <v>3440</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -8658,7 +8650,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>8</v>
@@ -8674,13 +8666,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -8688,7 +8680,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -8704,13 +8696,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -8718,7 +8710,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -8734,13 +8726,13 @@
         <v>3165</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -8748,7 +8740,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>2</v>
@@ -8764,13 +8756,13 @@
         <v>789</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -8778,7 +8770,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -8794,13 +8786,13 @@
         <v>1730</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -8824,13 +8816,13 @@
         <v>1726</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -8838,7 +8830,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8847,13 +8839,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -8877,13 +8869,13 @@
         <v>1136</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -8907,13 +8899,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -8937,13 +8929,13 @@
         <v>1910</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -8951,7 +8943,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -8967,13 +8959,13 @@
         <v>672</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -8995,13 +8987,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -9025,13 +9017,13 @@
         <v>2716</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -9039,7 +9031,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -9055,13 +9047,13 @@
         <v>3810</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -9069,7 +9061,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -9085,13 +9077,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -9099,7 +9091,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>1</v>
@@ -9115,13 +9107,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -9129,7 +9121,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -9138,13 +9130,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -9152,7 +9144,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3">
         <v>1</v>
@@ -9165,13 +9157,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -9195,13 +9187,13 @@
         <v>4920</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -9225,13 +9217,13 @@
         <v>157</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -9255,13 +9247,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -9269,7 +9261,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -9278,13 +9270,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -9292,7 +9284,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>5</v>
@@ -9308,13 +9300,13 @@
         <v>1452</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -9322,7 +9314,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -9332,13 +9324,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -9346,7 +9338,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>17</v>
@@ -9362,13 +9354,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -9376,7 +9368,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -9386,13 +9378,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -9400,7 +9392,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -9416,13 +9408,13 @@
         <v>1085</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -9430,7 +9422,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -9440,13 +9432,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -9454,7 +9446,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -9466,13 +9458,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -9480,7 +9472,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -9492,13 +9484,13 @@
         <v>472</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -9506,7 +9498,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -9518,13 +9510,13 @@
         <v>1456</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -9532,7 +9524,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -9544,13 +9536,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -9558,7 +9550,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -9570,13 +9562,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -9584,7 +9576,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -9592,13 +9584,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -9606,7 +9598,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -9614,13 +9606,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -9628,7 +9620,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -9636,13 +9628,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -9650,7 +9642,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -9658,13 +9650,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -9672,18 +9664,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -9691,7 +9683,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>13</v>
@@ -9703,13 +9695,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -9717,7 +9709,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -9725,13 +9717,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -9739,7 +9731,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>15</v>
@@ -9751,13 +9743,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -9765,7 +9757,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -9777,13 +9769,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -9791,7 +9783,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>126138</v>
@@ -9800,13 +9792,13 @@
         <v>131834</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -9826,9 +9818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E5807C-23FC-5B42-AF19-B80F265C4F84}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -9838,31 +9828,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -9882,10 +9872,10 @@
         <v>84</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -9908,10 +9898,10 @@
         <v>84</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -9938,10 +9928,10 @@
         <v>84</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -9964,10 +9954,10 @@
         <v>84</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -9990,10 +9980,10 @@
         <v>84</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -10016,10 +10006,10 @@
         <v>84</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -10042,10 +10032,10 @@
         <v>84</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -10068,10 +10058,10 @@
         <v>84</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -10079,7 +10069,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -10094,10 +10084,10 @@
         <v>84</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -10105,7 +10095,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -10120,10 +10110,10 @@
         <v>84</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -10146,10 +10136,10 @@
         <v>84</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -10176,10 +10166,10 @@
         <v>84</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -10202,10 +10192,10 @@
         <v>84</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -10213,7 +10203,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -10228,10 +10218,10 @@
         <v>84</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -10239,7 +10229,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -10251,10 +10241,10 @@
         <v>84</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -10262,7 +10252,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -10281,10 +10271,10 @@
         <v>84</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -10292,7 +10282,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -10307,10 +10297,10 @@
         <v>84</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -10318,7 +10308,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -10333,10 +10323,10 @@
         <v>84</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -10344,7 +10334,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -10359,10 +10349,10 @@
         <v>84</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -10370,7 +10360,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -10385,10 +10375,10 @@
         <v>84</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -10396,7 +10386,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -10408,10 +10398,10 @@
         <v>84</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -10436,10 +10426,10 @@
         <v>84</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -10447,7 +10437,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -10466,10 +10456,10 @@
         <v>84</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -10496,10 +10486,10 @@
         <v>84</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -10526,10 +10516,10 @@
         <v>84</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -10537,7 +10527,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -10552,10 +10542,10 @@
         <v>84</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -10563,7 +10553,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -10578,10 +10568,10 @@
         <v>84</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -10589,7 +10579,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -10604,10 +10594,10 @@
         <v>84</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -10615,7 +10605,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -10630,10 +10620,10 @@
         <v>84</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -10641,7 +10631,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -10656,10 +10646,10 @@
         <v>84</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -10667,7 +10657,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10682,10 +10672,10 @@
         <v>84</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -10693,7 +10683,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10708,10 +10698,10 @@
         <v>84</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -10734,10 +10724,10 @@
         <v>84</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -10745,7 +10735,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10757,10 +10747,10 @@
         <v>84</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -10783,10 +10773,10 @@
         <v>84</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -10809,10 +10799,10 @@
         <v>84</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -10835,10 +10825,10 @@
         <v>84</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -10846,7 +10836,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -10865,10 +10855,10 @@
         <v>84</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -10891,10 +10881,10 @@
         <v>84</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -10917,10 +10907,10 @@
         <v>84</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -10928,7 +10918,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -10943,10 +10933,10 @@
         <v>84</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -10954,7 +10944,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -10969,10 +10959,10 @@
         <v>84</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -10980,7 +10970,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -10995,10 +10985,10 @@
         <v>84</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -11006,7 +10996,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -11018,10 +11008,10 @@
         <v>84</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -11029,7 +11019,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -11041,10 +11031,10 @@
         <v>84</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -11067,10 +11057,10 @@
         <v>84</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -11093,10 +11083,10 @@
         <v>84</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -11119,10 +11109,10 @@
         <v>84</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -11130,7 +11120,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -11142,10 +11132,10 @@
         <v>84</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -11153,7 +11143,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -11168,10 +11158,10 @@
         <v>84</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -11179,7 +11169,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -11192,10 +11182,10 @@
         <v>84</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -11203,7 +11193,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -11218,10 +11208,10 @@
         <v>84</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -11229,7 +11219,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -11242,10 +11232,10 @@
         <v>84</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -11253,7 +11243,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -11268,10 +11258,10 @@
         <v>84</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -11279,7 +11269,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -11292,10 +11282,10 @@
         <v>84</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -11303,7 +11293,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -11318,10 +11308,10 @@
         <v>84</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -11329,7 +11319,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -11344,10 +11334,10 @@
         <v>84</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -11355,7 +11345,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -11370,10 +11360,10 @@
         <v>84</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -11381,7 +11371,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -11396,10 +11386,10 @@
         <v>84</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -11407,7 +11397,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -11422,10 +11412,10 @@
         <v>84</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -11433,7 +11423,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -11444,10 +11434,10 @@
         <v>84</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -11455,7 +11445,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -11466,10 +11456,10 @@
         <v>84</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -11477,7 +11467,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -11488,10 +11478,10 @@
         <v>84</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -11499,7 +11489,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -11510,10 +11500,10 @@
         <v>84</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -11521,7 +11511,7 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -11529,10 +11519,10 @@
         <v>84</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -11540,7 +11530,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -11551,10 +11541,10 @@
         <v>84</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -11562,7 +11552,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -11573,10 +11563,10 @@
         <v>84</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -11584,7 +11574,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -11595,10 +11585,10 @@
         <v>84</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -11606,7 +11596,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -11617,10 +11607,10 @@
         <v>84</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -11628,7 +11618,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>0</v>
@@ -11640,10 +11630,10 @@
         <v>84</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
